--- a/_site/workshop/assets/NightwoodData.xlsx
+++ b/_site/workshop/assets/NightwoodData.xlsx
@@ -601,7 +601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,8 +639,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +662,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -742,13 +754,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="59"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="60">
+    <cellStyle name="Accent1" xfId="59" builtinId="29"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1146,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D100" workbookViewId="0">
-      <selection activeCell="AE122" sqref="AE122"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D102" workbookViewId="0">
+      <selection activeCell="AG110" sqref="AG110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1447,12 +1462,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <f t="shared" si="4"/>
         <v>1107.9356831400046</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1">
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3">
         <v>300</v>
       </c>
     </row>
@@ -3262,12 +3277,12 @@
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AE58" s="3">
         <f t="shared" si="4"/>
         <v>490.32932755283559</v>
       </c>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1">
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3">
         <v>260</v>
       </c>
     </row>
@@ -3587,12 +3602,12 @@
         <f t="shared" si="11"/>
         <v>67</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AE67" s="3">
         <f t="shared" si="12"/>
         <v>904.30997003059349</v>
       </c>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3">
         <v>140</v>
       </c>
     </row>
@@ -5325,12 +5340,12 @@
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
-      <c r="AE115" s="1">
+      <c r="AE115" s="3">
         <f t="shared" si="12"/>
         <v>1208.1785321404197</v>
       </c>
-      <c r="AF115" s="1"/>
-      <c r="AG115" s="1">
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3">
         <v>85</v>
       </c>
     </row>
@@ -5559,12 +5574,12 @@
         <f t="shared" si="16"/>
         <v>122</v>
       </c>
-      <c r="AE122" s="1">
+      <c r="AE122" s="3">
         <f t="shared" si="12"/>
         <v>990.78124705195773</v>
       </c>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="1">
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3">
         <v>266</v>
       </c>
     </row>
